--- a/管理/仕様＆企画/仕様/Fight/Enemy.xlsx
+++ b/管理/仕様＆企画/仕様/Fight/Enemy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5AAD3-43FD-4DC0-9CF6-8E53E2245A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC3654E-A2F0-452B-86D1-3B419590E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CD39FCF-C75C-4D96-9FA6-1060601C2B60}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CD39FCF-C75C-4D96-9FA6-1060601C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Anim" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くらい時は敵を一瞬赤くする</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,13 +72,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,17 +111,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="どちらでもない" xfId="1" builtinId="28"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,6 +450,106 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1304925" y="10058400"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6396E8C-4B50-2F4A-6415-438C6FC07711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="9991725"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFB8F6B-0C75-1302-0768-93D4BDF42094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="14792325"/>
           <a:ext cx="7772400" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -733,18 +892,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A4D08-CE12-40A9-9A9A-2D9E9EEC1E9C}">
-  <dimension ref="A1"/>
+  <dimension ref="M3:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="94.875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M6" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
